--- a/biology/Zoologie/Crotalus_stejnegeri/Crotalus_stejnegeri.xlsx
+++ b/biology/Zoologie/Crotalus_stejnegeri/Crotalus_stejnegeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus stejnegeri est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus stejnegeri est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre dans l'ouest de l'État de Durango et dans le sud de l'État de Sinaloa, entre 760 et 915 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre dans l'ouest de l'État de Durango et dans le sud de l'État de Sinaloa, entre 760 et 915 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus stejnegeri est un serpent venimeux[1]. Dans sa description'[2] Dunn indique que le plus grand spécimen en sa possession mesure 59 cm dont 7,7 cm pour la queue, cascabelle non comprise. Son dos est brun-gris et présente une quarantaine de losanges sombres entourés de noir. Son ventre est grisâtre marbré de noir. Sa gorge est blanche avec une tache noire à l'angle de la mâchoire. Sa cascabelle mesure 12 mm de long et 4 mm de large. Elle est composée de sept anneaux.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus stejnegeri est un serpent venimeux. Dans sa description' Dunn indique que le plus grand spécimen en sa possession mesure 59 cm dont 7,7 cm pour la queue, cascabelle non comprise. Son dos est brun-gris et présente une quarantaine de losanges sombres entourés de noir. Son ventre est grisâtre marbré de noir. Sa gorge est blanche avec une tache noire à l'angle de la mâchoire. Sa cascabelle mesure 12 mm de long et 4 mm de large. Elle est composée de sept anneaux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d zoologiste américain Leonhard Hess Stejneger[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d zoologiste américain Leonhard Hess Stejneger.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dunn, 1919 : Two new crotaline snakes from western Mexico. Proceedings of the Biological Society of Washington, vol. 32, p. 213-216 (texte intégral).</t>
         </is>
